--- a/plan/概率.xlsx
+++ b/plan/概率.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>力量</t>
   </si>
@@ -41,23 +42,26 @@
     <t>平衡</t>
   </si>
   <si>
-    <t>x1</t>
+    <t>骷髅</t>
   </si>
   <si>
-    <t>x2</t>
+    <t>病公子</t>
   </si>
   <si>
-    <t>x3</t>
+    <t>老</t>
   </si>
   <si>
-    <t>x4</t>
+    <t>军师</t>
+  </si>
+  <si>
+    <t>智者</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +73,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
@@ -90,20 +109,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -120,11 +136,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,18 +151,38 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
-    <cellStyle name="60% - 着色 2" xfId="3" builtinId="36"/>
-    <cellStyle name="60% - 着色 4" xfId="4" builtinId="44"/>
-    <cellStyle name="60% - 着色 6" xfId="5" builtinId="52"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="着色 1" xfId="3" builtinId="29"/>
+    <cellStyle name="着色 2" xfId="4" builtinId="33"/>
+    <cellStyle name="着色 6" xfId="5" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -458,18 +494,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U14"/>
+  <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="7" width="5.5703125" style="1"/>
+    <col min="8" max="8" width="8.5703125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="11"/>
+    <col min="21" max="21" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.5703125" style="11"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -491,8 +533,20 @@
       <c r="G2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -514,8 +568,14 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="M3" s="11">
+        <v>4</v>
+      </c>
+      <c r="V3" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -537,8 +597,14 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="M4" s="11">
+        <v>3</v>
+      </c>
+      <c r="V4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -560,8 +626,14 @@
       <c r="G5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="M5" s="11">
+        <v>2</v>
+      </c>
+      <c r="V5" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -577,8 +649,14 @@
       <c r="E6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="M6" s="11">
+        <v>1</v>
+      </c>
+      <c r="V6" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -591,8 +669,20 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="V7" s="11">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="B8" s="2">
         <f>B7/SUM($B$7:$E$7)</f>
         <v>0.1111111111111111</v>
@@ -610,7 +700,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:24">
       <c r="C9" s="3">
         <f>B8+C8</f>
         <v>0.44444444444444442</v>
@@ -623,168 +713,591 @@
         <f>D9+E8</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="I12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="I13" t="s">
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" s="11">
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="M10" s="11">
+        <v>4</v>
+      </c>
+      <c r="V10" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="M11" s="11">
+        <v>3</v>
+      </c>
+      <c r="V11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="11">
+        <v>2</v>
+      </c>
+      <c r="V12" s="11">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="I14" t="s">
+    </row>
+    <row r="13" spans="1:24">
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="M13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="B14" s="6">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>3</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>5</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" s="11">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="U14" s="4" t="s">
+      <c r="O16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="5">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>3</v>
+      </c>
+      <c r="M17" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>5</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3</v>
+      </c>
+      <c r="M18" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="6">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="4">
+        <v>3</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="4">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <v>3</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="4">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="6">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="6">
+        <v>5</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="4">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
+      <c r="B28" s="4">
+        <v>3</v>
+      </c>
+      <c r="C28" s="6">
+        <v>5</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3</v>
+      </c>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="4">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>5</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="4">
+        <v>3</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="7">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3</v>
+      </c>
+      <c r="D38" s="4">
+        <v>2</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="4">
+        <v>3</v>
+      </c>
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7">
+        <v>4</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="4">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4">
+        <v>2</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>4</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>4</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
         <v>0</v>
       </c>
     </row>

--- a/plan/概率.xlsx
+++ b/plan/概率.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mycode\GitHub\KongFuWeb\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0A972-3799-4F2A-BE16-B9DD05A45703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16590" windowHeight="8460"/>
+    <workbookView xWindow="18480" yWindow="7650" windowWidth="18390" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="破绽" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>力量</t>
   </si>
@@ -56,16 +65,40 @@
   <si>
     <t>智者</t>
   </si>
+  <si>
+    <t>破绽发现加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力50以下开始影响破绽</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二回合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三回合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四回合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-0耐力对应0%-15%破绽率</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -73,7 +106,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -81,14 +114,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -140,7 +180,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -174,6 +214,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -493,25 +544,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="7" width="5.5703125" style="1"/>
-    <col min="8" max="8" width="8.5703125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="11"/>
-    <col min="21" max="21" width="5.5703125" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" style="11"/>
-    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="5.625" style="1"/>
+    <col min="8" max="8" width="8.625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="11"/>
+    <col min="21" max="21" width="5.625" customWidth="1"/>
+    <col min="22" max="22" width="5.625" style="11"/>
+    <col min="23" max="23" width="7.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -546,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -575,7 +626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -604,7 +655,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -633,7 +684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -656,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>1</v>
       </c>
@@ -682,7 +733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
         <f>B7/SUM($B$7:$E$7)</f>
         <v>0.1111111111111111</v>
@@ -700,7 +751,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="3">
         <f>B8+C8</f>
         <v>0.44444444444444442</v>
@@ -726,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M10" s="11">
         <v>4</v>
       </c>
@@ -734,7 +785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M11" s="11">
         <v>3</v>
       </c>
@@ -742,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -768,7 +819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -790,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="6">
         <v>5</v>
       </c>
@@ -810,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="6">
         <v>5</v>
       </c>
@@ -827,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>0</v>
       </c>
@@ -856,7 +907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>0</v>
       </c>
@@ -876,7 +927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>0</v>
       </c>
@@ -896,7 +947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="6">
         <v>5</v>
       </c>
@@ -916,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="4">
         <v>3</v>
       </c>
@@ -936,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>3</v>
       </c>
@@ -956,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>3</v>
       </c>
@@ -973,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>5</v>
       </c>
@@ -990,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>5</v>
       </c>
@@ -1007,7 +1058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>5</v>
       </c>
@@ -1024,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>0</v>
       </c>
@@ -1041,7 +1092,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <v>3</v>
       </c>
@@ -1058,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>3</v>
       </c>
@@ -1075,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>0</v>
       </c>
@@ -1092,7 +1143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>3</v>
       </c>
@@ -1109,7 +1160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="4">
         <v>3</v>
       </c>
@@ -1126,7 +1177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>0</v>
       </c>
@@ -1143,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="4">
         <v>3</v>
       </c>
@@ -1160,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="4">
         <v>3</v>
       </c>
@@ -1177,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
         <v>4</v>
       </c>
@@ -1194,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>3</v>
       </c>
@@ -1211,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="4">
         <v>3</v>
       </c>
@@ -1228,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="4">
         <v>3</v>
       </c>
@@ -1245,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="1">
         <v>3</v>
       </c>
@@ -1263,45 +1314,596 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="4" width="7.375" customWidth="1"/>
+    <col min="5" max="6" width="7.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="7.375" customWidth="1"/>
+    <col min="8" max="9" width="7.375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>0</v>
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="14">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14">
+        <v>2</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10" s="14">
+        <v>7</v>
+      </c>
+      <c r="D10" s="14">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11" s="14">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="14">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="12">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14">
+        <v>3</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" s="14" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>3</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D15" s="14">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16" s="14">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D16" s="13">
+        <v>2</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13">
+        <v>2</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17" s="14">
+        <v>5</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I18" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19" s="14">
+        <v>7</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D19" s="13">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I19" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="15"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14">
+        <v>8</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="D21" s="14">
+        <v>4</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>2</v>
+      </c>
+      <c r="B22" s="14">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.02</v>
+      </c>
+      <c r="D22" s="13">
+        <v>5</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14">
+        <v>4</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>3</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="13">
+        <v>7</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13">
+        <v>2</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>4</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D24" s="13">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>5</v>
+      </c>
+      <c r="B25" s="14">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13">
+        <v>3</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="15"/>
+      <c r="F26" s="12"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12">
+        <f>SUM(E3:F13)</f>
+        <v>0.19</v>
+      </c>
+      <c r="G28" s="12">
+        <f>F28*$B$1</f>
+        <v>0.29450000000000004</v>
+      </c>
+      <c r="I28" s="12">
+        <f>SUM(H3:I13)</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="J28" s="12">
+        <f>I28*$B$1</f>
+        <v>0.26349999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12">
+        <f>SUM(C1:C19)</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <f>SUM(E1:F19)</f>
+        <v>0.37</v>
+      </c>
+      <c r="G29" s="12">
+        <f t="shared" ref="G29:G30" si="0">F29*$B$1</f>
+        <v>0.57350000000000001</v>
+      </c>
+      <c r="I29" s="12">
+        <f>SUM(H1:I19)</f>
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" ref="J29:J30" si="1">I29*$B$1</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="12">
+        <f>SUM(C3:C25)</f>
+        <v>0.16</v>
+      </c>
+      <c r="F30" s="12">
+        <f>SUM(E3:F25)</f>
+        <v>0.4</v>
+      </c>
+      <c r="G30" s="12">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="I30" s="12">
+        <f>SUM(H3:I25)</f>
+        <v>0.79000000000000015</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="1"/>
+        <v>1.2245000000000004</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/plan/概率.xlsx
+++ b/plan/概率.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF0A972-3799-4F2A-BE16-B9DD05A45703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9EED8-8B94-425C-8C37-7809E95CDD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="7650" windowWidth="18390" windowHeight="12165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="破绽" sheetId="3" r:id="rId2"/>
+    <sheet name="耐力" sheetId="4" r:id="rId3"/>
+    <sheet name="时间" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>力量</t>
   </si>
@@ -89,12 +91,40 @@
     <t>50-0耐力对应0%-15%破绽率</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>时间点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击用时</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力剩余</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力花费</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐力恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +163,32 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +216,27 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -172,15 +247,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -226,11 +313,20 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
+    <cellStyle name="40% - 着色 5" xfId="9" builtinId="47"/>
     <cellStyle name="60% - 着色 1" xfId="2" builtinId="32"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26"/>
+    <cellStyle name="适中" xfId="8" builtinId="28"/>
     <cellStyle name="着色 1" xfId="3" builtinId="29"/>
     <cellStyle name="着色 2" xfId="4" builtinId="33"/>
     <cellStyle name="着色 6" xfId="5" builtinId="49"/>
@@ -1324,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1906,4 +2002,1850 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C052CB7-A640-4E97-B29C-92F294C2D6DF}">
+  <dimension ref="A3:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>7.5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>7.5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>7.5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>SUM($B$3:B7)</f>
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <f>SUM($B$3:C7)</f>
+        <v>72.5</v>
+      </c>
+      <c r="D28">
+        <f>SUM($B$3:D7)</f>
+        <v>92.5</v>
+      </c>
+      <c r="E28">
+        <f>SUM($B$3:E7)</f>
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <f>SUM($B$3:B13)</f>
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <f>SUM($B$3:C13)</f>
+        <v>157</v>
+      </c>
+      <c r="D29">
+        <f>SUM($B$3:D13)</f>
+        <v>192</v>
+      </c>
+      <c r="E29">
+        <f>SUM($B$3:E13)</f>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <f>SUM($B$3:B19)</f>
+        <v>177</v>
+      </c>
+      <c r="C30">
+        <f>SUM($B$3:C19)</f>
+        <v>222</v>
+      </c>
+      <c r="D30">
+        <f>SUM($B$3:D19)</f>
+        <v>272</v>
+      </c>
+      <c r="E30">
+        <f>SUM($B$3:E19)</f>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <f>SUM($B$3:B25)</f>
+        <v>239</v>
+      </c>
+      <c r="C31">
+        <f>SUM($B$3:C25)</f>
+        <v>296.5</v>
+      </c>
+      <c r="D31">
+        <f>SUM($B$3:D25)</f>
+        <v>361.5</v>
+      </c>
+      <c r="E31">
+        <f>SUM($B$3:E25)</f>
+        <v>396.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B83226E-417D-41A7-8B23-9D2632524EB2}">
+  <dimension ref="A1:I202"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22">
+        <v>1</v>
+      </c>
+      <c r="E1" s="22">
+        <v>70</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22">
+        <v>1</v>
+      </c>
+      <c r="I1" s="22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C3">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.6</v>
+      </c>
+      <c r="B18" s="21"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.7</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.8</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.9</v>
+      </c>
+      <c r="B21" s="20"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="20"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2.1</v>
+      </c>
+      <c r="B23" s="20"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2.4</v>
+      </c>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2.5</v>
+      </c>
+      <c r="B27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2.6</v>
+      </c>
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2.7</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2.8</v>
+      </c>
+      <c r="B30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2.9</v>
+      </c>
+      <c r="B31" s="21"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="E32">
+        <f>E$1+SUM($C$3:D32)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3.1</v>
+      </c>
+      <c r="B33" s="23"/>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G33">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3.2</v>
+      </c>
+      <c r="B34" s="23"/>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>3.3</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>3.4</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3.5</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3.6</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3.7</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" s="20"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3.8</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40" s="20"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3.9</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42" s="20"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4.2</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4.3</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4.5</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>4.7</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49" s="20">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>4.8</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5.2</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>5.3</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55" s="20"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>5.4</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5.5</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>5.6</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>5.7</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5.8</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>5.9</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f>E$1+SUM($C$3:D62)</f>
+        <v>75</v>
+      </c>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>6.1</v>
+      </c>
+      <c r="B63" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C63">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6.2</v>
+      </c>
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6.3</v>
+      </c>
+      <c r="B65" s="19"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>6.4</v>
+      </c>
+      <c r="B66" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>6.5</v>
+      </c>
+      <c r="B67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>6.6</v>
+      </c>
+      <c r="B68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>6.7</v>
+      </c>
+      <c r="B69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>6.8</v>
+      </c>
+      <c r="B70" s="20"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>6.9</v>
+      </c>
+      <c r="B71" s="20"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="B72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>7.1</v>
+      </c>
+      <c r="B73" s="20"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>7.2</v>
+      </c>
+      <c r="B74" s="20"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>7.3</v>
+      </c>
+      <c r="B75" s="20"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>7.4</v>
+      </c>
+      <c r="B76" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7.5</v>
+      </c>
+      <c r="B77" s="21"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>7.6</v>
+      </c>
+      <c r="B78" s="21"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>7.7</v>
+      </c>
+      <c r="B79" s="20">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>7.8</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>7.9</v>
+      </c>
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>8</v>
+      </c>
+      <c r="B82" s="20"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>8.1</v>
+      </c>
+      <c r="B83" s="20"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B84" s="20"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B85" s="20"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>8.4</v>
+      </c>
+      <c r="B86" s="20"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>8.5</v>
+      </c>
+      <c r="B87" s="20"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>8.6</v>
+      </c>
+      <c r="B88" s="20"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B89" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B90" s="21"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>8.9</v>
+      </c>
+      <c r="B91" s="21"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92" s="21"/>
+      <c r="E92">
+        <f>E$1+SUM($C$3:D92)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>9.1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="F93" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G93">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="F94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="F95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>9.4</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="F96" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>9.5</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="F97" s="20"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>9.6</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="F98" s="20"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="F99" s="20"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="F100" s="20"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>9.9</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="20"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="F102" s="20"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>10.1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="F103" s="20"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="F104" s="20"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>10.3</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="F105" s="20"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>10.4</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>10.5</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="F107" s="21"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>10.6</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="F108" s="21"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>10.7</v>
+      </c>
+      <c r="B109" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>10.8</v>
+      </c>
+      <c r="B110" s="19"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>10.9</v>
+      </c>
+      <c r="B111" s="19"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>11.1</v>
+      </c>
+      <c r="B113" s="20"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>11.2</v>
+      </c>
+      <c r="B114" s="20"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>11.3</v>
+      </c>
+      <c r="B115" s="20"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>11.4</v>
+      </c>
+      <c r="B116" s="20"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>11.5</v>
+      </c>
+      <c r="B117" s="20"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>11.6</v>
+      </c>
+      <c r="B118" s="20"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>11.7</v>
+      </c>
+      <c r="B119" s="20"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>11.8</v>
+      </c>
+      <c r="B120" s="20"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>11.9</v>
+      </c>
+      <c r="B121" s="20"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>12</v>
+      </c>
+      <c r="B122" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>12.1</v>
+      </c>
+      <c r="B123" s="21"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>12.2</v>
+      </c>
+      <c r="B124" s="21"/>
+      <c r="E124">
+        <f>E$1+SUM($C$3:D124)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>12.3</v>
+      </c>
+      <c r="B125" s="23"/>
+      <c r="F125" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G125">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>12.4</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="F126" s="19"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>12.5</v>
+      </c>
+      <c r="B127" s="23"/>
+      <c r="F127" s="19"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>12.6</v>
+      </c>
+      <c r="B128" s="23"/>
+      <c r="F128" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>12.7</v>
+      </c>
+      <c r="B129" s="23"/>
+      <c r="F129" s="20"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>12.8</v>
+      </c>
+      <c r="B130" s="23"/>
+      <c r="F130" s="20"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>12.9</v>
+      </c>
+      <c r="B131" s="23"/>
+      <c r="F131" s="20"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>13</v>
+      </c>
+      <c r="B132" s="23"/>
+      <c r="F132" s="20"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>13.1</v>
+      </c>
+      <c r="B133" s="23"/>
+      <c r="F133" s="20"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>13.2</v>
+      </c>
+      <c r="B134" s="23"/>
+      <c r="F134" s="20"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>13.3</v>
+      </c>
+      <c r="B135" s="23"/>
+      <c r="F135" s="20"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>13.4</v>
+      </c>
+      <c r="B136" s="23"/>
+      <c r="F136" s="20"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>13.5</v>
+      </c>
+      <c r="B137" s="23"/>
+      <c r="F137" s="20"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>13.6</v>
+      </c>
+      <c r="B138" s="23"/>
+      <c r="F138" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>13.7</v>
+      </c>
+      <c r="B139" s="23"/>
+      <c r="F139" s="21"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>13.8</v>
+      </c>
+      <c r="B140" s="23"/>
+      <c r="F140" s="21"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>13.9</v>
+      </c>
+      <c r="F141" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G141">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>14</v>
+      </c>
+      <c r="F142" s="19"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>14.1</v>
+      </c>
+      <c r="F143" s="19"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>14.2</v>
+      </c>
+      <c r="F144" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>14.3</v>
+      </c>
+      <c r="F145" s="20"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>14.4</v>
+      </c>
+      <c r="F146" s="20"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>14.5</v>
+      </c>
+      <c r="F147" s="20"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>14.6</v>
+      </c>
+      <c r="F148" s="20"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>14.7</v>
+      </c>
+      <c r="F149" s="20"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>14.8</v>
+      </c>
+      <c r="F150" s="20"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>14.9</v>
+      </c>
+      <c r="F151" s="20"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>15</v>
+      </c>
+      <c r="F152" s="20"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>15.1</v>
+      </c>
+      <c r="F153" s="20"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>15.2</v>
+      </c>
+      <c r="F154" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>15.3</v>
+      </c>
+      <c r="F155" s="21"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>15.4</v>
+      </c>
+      <c r="F156" s="21"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>18</v>
+      </c>
+      <c r="E182">
+        <f>E$1+SUM($C$3:D182)</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/plan/概率.xlsx
+++ b/plan/概率.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F9EED8-8B94-425C-8C37-7809E95CDD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E723A-6B43-4350-A42E-B59BBC5DD5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>力量</t>
   </si>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>耐力恢复</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +648,7 @@
   <dimension ref="A2:X42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1420,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2009,7 +2013,7 @@
   <dimension ref="A3:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2348,15 +2352,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B83226E-417D-41A7-8B23-9D2632524EB2}">
-  <dimension ref="A1:I202"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="1.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="22" t="s">
         <v>19</v>
       </c>
@@ -2365,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="22">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>20</v>
@@ -2375,10 +2385,20 @@
         <v>1</v>
       </c>
       <c r="I1" s="22">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="N1" s="22">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2406,8 +2426,20 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -2415,104 +2447,129 @@
         <v>0.3</v>
       </c>
       <c r="C3">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>-20</v>
+      </c>
+      <c r="K3" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.2</v>
       </c>
       <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.3</v>
       </c>
       <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.4</v>
       </c>
       <c r="B6" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K6" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.5</v>
       </c>
       <c r="B7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.6</v>
       </c>
       <c r="B8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.7</v>
       </c>
       <c r="B9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.8</v>
       </c>
       <c r="B10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.9</v>
       </c>
       <c r="B11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
       <c r="B13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1.2</v>
       </c>
       <c r="B14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.3</v>
       </c>
       <c r="B15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.4</v>
       </c>
       <c r="B16" s="21">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K16" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1.5</v>
       </c>
       <c r="B17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.6</v>
       </c>
       <c r="B18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.7</v>
       </c>
@@ -2520,103 +2577,133 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-20</v>
+      </c>
+      <c r="K19" s="20">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.8</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>-10</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.9</v>
       </c>
       <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2.1</v>
       </c>
       <c r="B23" s="20"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
       <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
       <c r="B25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2.4</v>
       </c>
       <c r="B26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2.5</v>
       </c>
       <c r="B27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2.6</v>
       </c>
       <c r="B28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2.7</v>
       </c>
       <c r="B29" s="21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K29" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2.8</v>
       </c>
       <c r="B30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2.9</v>
       </c>
       <c r="B31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" s="21"/>
       <c r="E32">
         <f>E$1+SUM($C$3:D32)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="N32">
+        <f>N$1+SUM($L$3:M32)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3.1</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="D33">
-        <v>1</v>
+      <c r="B33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>-10</v>
       </c>
       <c r="F33" s="19">
         <v>0.3</v>
@@ -2624,1228 +2711,1927 @@
       <c r="G33">
         <v>-10</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K33" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3.2</v>
       </c>
       <c r="B34" s="23"/>
-      <c r="D34">
-        <v>1</v>
-      </c>
       <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K34" s="23"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3.3</v>
       </c>
       <c r="B35" s="23"/>
-      <c r="D35">
-        <v>1</v>
-      </c>
       <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K35" s="23"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3.4</v>
       </c>
       <c r="B36" s="23"/>
-      <c r="D36">
-        <v>1</v>
-      </c>
       <c r="F36" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K36" s="23"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3.5</v>
       </c>
       <c r="B37" s="23"/>
-      <c r="D37">
-        <v>1</v>
-      </c>
       <c r="F37" s="20"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K37" s="23"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3.6</v>
       </c>
       <c r="B38" s="23"/>
-      <c r="D38">
-        <v>1</v>
-      </c>
       <c r="F38" s="20"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K38" s="23"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3.7</v>
       </c>
       <c r="B39" s="23"/>
-      <c r="D39">
-        <v>1</v>
-      </c>
       <c r="F39" s="20"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K39" s="23"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3.8</v>
       </c>
       <c r="B40" s="23"/>
-      <c r="D40">
-        <v>1</v>
-      </c>
       <c r="F40" s="20"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K40" s="23"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3.9</v>
       </c>
       <c r="B41" s="23"/>
-      <c r="D41">
-        <v>1</v>
-      </c>
       <c r="F41" s="20"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K41" s="23"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" s="23"/>
-      <c r="D42">
-        <v>1</v>
-      </c>
       <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K42" s="23"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="D43">
-        <v>1</v>
-      </c>
       <c r="F43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K43" s="23"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4.2</v>
       </c>
       <c r="B44" s="23"/>
-      <c r="D44">
-        <v>1</v>
-      </c>
       <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K44" s="23"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4.3</v>
       </c>
       <c r="B45" s="23"/>
-      <c r="D45">
-        <v>1</v>
-      </c>
       <c r="F45" s="20"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
       <c r="B46" s="23"/>
-      <c r="D46">
-        <v>1</v>
-      </c>
       <c r="F46" s="21">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K46" s="23"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4.5</v>
       </c>
       <c r="B47" s="23"/>
-      <c r="D47">
-        <v>1</v>
-      </c>
       <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K47" s="23"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
       <c r="B48" s="23"/>
-      <c r="D48">
-        <v>1</v>
+      <c r="E48">
+        <f>E$1+SUM($C$3:D48)</f>
+        <v>80</v>
       </c>
       <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="K48" s="23"/>
+      <c r="N48">
+        <f>N$1+SUM($L$3:M48)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
+        <v>6.1</v>
+      </c>
+      <c r="B49" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C49">
+        <v>-20</v>
+      </c>
+      <c r="K49" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="L49">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6.2</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="K50" s="19"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6.3</v>
+      </c>
+      <c r="B51" s="19"/>
+      <c r="K51" s="19"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6.4</v>
+      </c>
+      <c r="B52" s="20">
+        <v>1</v>
+      </c>
+      <c r="K52" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6.5</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>6.6</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>6.7</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>6.8</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6.9</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>7.1</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>7.2</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>7.3</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>7.4</v>
+      </c>
+      <c r="B62" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K62" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>7.5</v>
+      </c>
+      <c r="B63" s="21"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>7.6</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>7.7</v>
+      </c>
+      <c r="B65" s="20">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>-20</v>
+      </c>
+      <c r="K65" s="20">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>7.8</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66">
+        <v>-10</v>
+      </c>
+      <c r="K66" s="20"/>
+      <c r="L66">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>7.9</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>8</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>8.1</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="K70" s="20"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="K71" s="20"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>8.4</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>8.5</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="K73" s="20"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>8.6</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="K74" s="20"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="B75" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="K75" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>8.9</v>
+      </c>
+      <c r="B77" s="21"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" s="21"/>
+      <c r="E78">
+        <f>E$1+SUM($C$3:D78)</f>
+        <v>30</v>
+      </c>
+      <c r="K78" s="21"/>
+      <c r="N78">
+        <f>N$1+SUM($L$3:M78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9.1</v>
+      </c>
+      <c r="D79">
+        <f>$D$1</f>
+        <v>1</v>
+      </c>
+      <c r="F79" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G79">
+        <v>-10</v>
+      </c>
+      <c r="M79">
+        <f>$M$1</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D80">
+        <f t="shared" ref="D80:D94" si="0">$D$1</f>
+        <v>1</v>
+      </c>
+      <c r="F80" s="19"/>
+      <c r="M80">
+        <f t="shared" ref="M80:M103" si="1">$M$1</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F81" s="19"/>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>9.4</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F82" s="20">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>9.5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F83" s="20"/>
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>9.6</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F84" s="20"/>
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F85" s="20"/>
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>9.9</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F87" s="20"/>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>10.1</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F89" s="20"/>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F90" s="20"/>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>10.3</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F91" s="20"/>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>10.4</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F92" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>10.5</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>10.6</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <f>E$1+SUM($C$3:D94)</f>
+        <v>46</v>
+      </c>
+      <c r="F94" s="21"/>
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>10.7</v>
+      </c>
+      <c r="B95" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="C95">
+        <v>-20</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>10.8</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>10.9</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>11</v>
+      </c>
+      <c r="B98" s="20">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>11.1</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="M99">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>11.2</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="M100">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>11.3</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="M101">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>11.4</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="M102">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>11.5</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="M103">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="N103">
+        <f>N$1+SUM($L$3:M103)</f>
+        <v>22.500000000000142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>11.6</v>
+      </c>
+      <c r="B104" s="20"/>
+      <c r="K104" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="L104">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>11.7</v>
+      </c>
+      <c r="B105" s="20"/>
+      <c r="K105" s="19"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>11.8</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="K106" s="19"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>11.9</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="K107" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>12</v>
+      </c>
+      <c r="B108" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>12.1</v>
+      </c>
+      <c r="B109" s="21"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>12.2</v>
+      </c>
+      <c r="B110" s="21"/>
+      <c r="E110">
+        <f>E$1+SUM($C$3:D110)</f>
+        <v>26</v>
+      </c>
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>12.3</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111">
+        <v>-10</v>
+      </c>
+      <c r="F111" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G111">
+        <v>-10</v>
+      </c>
+      <c r="K111" s="20"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>12.4</v>
+      </c>
+      <c r="B112" s="23"/>
+      <c r="F112" s="19"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>12.5</v>
+      </c>
+      <c r="B113" s="23"/>
+      <c r="F113" s="19"/>
+      <c r="K113" s="20"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>12.6</v>
+      </c>
+      <c r="B114" s="23"/>
+      <c r="F114" s="20">
+        <v>1</v>
+      </c>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>12.7</v>
+      </c>
+      <c r="B115" s="23"/>
+      <c r="F115" s="20"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>12.8</v>
+      </c>
+      <c r="B116" s="23"/>
+      <c r="F116" s="20"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>12.9</v>
+      </c>
+      <c r="B117" s="23"/>
+      <c r="F117" s="20"/>
+      <c r="K117" s="21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>13</v>
+      </c>
+      <c r="B118" s="23"/>
+      <c r="F118" s="20"/>
+      <c r="K118" s="21"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>13.1</v>
+      </c>
+      <c r="B119" s="23"/>
+      <c r="F119" s="20"/>
+      <c r="K119" s="21"/>
+      <c r="N119">
+        <f>N$1+SUM($L$3:M119)</f>
+        <v>2.5000000000001421</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>13.2</v>
+      </c>
+      <c r="B120" s="23"/>
+      <c r="F120" s="20"/>
+      <c r="M120">
+        <f t="shared" ref="M120:M132" si="2">$M$1</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>13.3</v>
+      </c>
+      <c r="B121" s="23"/>
+      <c r="F121" s="20"/>
+      <c r="M121">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>13.4</v>
+      </c>
+      <c r="B122" s="23"/>
+      <c r="F122" s="20"/>
+      <c r="M122">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>13.5</v>
+      </c>
+      <c r="B123" s="23"/>
+      <c r="F123" s="20"/>
+      <c r="M123">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>13.6</v>
+      </c>
+      <c r="B124" s="23"/>
+      <c r="F124" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>13.7</v>
+      </c>
+      <c r="B125" s="23"/>
+      <c r="F125" s="21"/>
+      <c r="M125">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>13.8</v>
+      </c>
+      <c r="B126" s="23"/>
+      <c r="E126">
+        <f>E$1+SUM($C$3:D126)</f>
+        <v>16</v>
+      </c>
+      <c r="F126" s="21"/>
+      <c r="M126">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>13.9</v>
+      </c>
+      <c r="D127">
+        <f t="shared" ref="D127:D182" si="3">$D$1</f>
+        <v>1</v>
+      </c>
+      <c r="F127" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G127">
+        <v>-10</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>14</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F128" s="19"/>
+      <c r="M128">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>14.1</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F129" s="19"/>
+      <c r="M129">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>14.2</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F130" s="20">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>14.3</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F131" s="20"/>
+      <c r="M131">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>14.4</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F132" s="20"/>
+      <c r="M132">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="N132">
+        <f>N$1+SUM($L$3:M132)</f>
+        <v>14.200000000000216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>14.5</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F133" s="20"/>
+      <c r="K133" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="L133">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>14.6</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F134" s="20"/>
+      <c r="K134" s="23"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>14.7</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F135" s="20"/>
+      <c r="K135" s="23"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>14.8</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F136" s="20"/>
+      <c r="K136" s="23"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>14.9</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F137" s="20"/>
+      <c r="K137" s="23"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F138" s="20"/>
+      <c r="K138" s="23"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>15.1</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F139" s="20"/>
+      <c r="K139" s="23"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>15.2</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F140" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="K140" s="23"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>15.3</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F141" s="21"/>
+      <c r="K141" s="23"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>15.4</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F142" s="21"/>
+      <c r="K142" s="23"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143">
         <v>4.7</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="F49" s="20">
-        <v>1</v>
-      </c>
-      <c r="G49">
+      <c r="D143">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F143" s="20">
+        <v>1</v>
+      </c>
+      <c r="G143">
         <v>-10</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="K143" s="23"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144">
         <v>4.8</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="20"/>
-      <c r="G50">
+      <c r="D144">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F144" s="20"/>
+      <c r="G144">
         <v>-5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="K144" s="23"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="F51" s="20"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="F52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="D145">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F145" s="20"/>
+      <c r="K145" s="23"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F146" s="20"/>
+      <c r="K146" s="23"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A147">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
+      <c r="D147">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F147" s="20"/>
+      <c r="K147" s="23"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A148">
         <v>5.2</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="F54" s="20"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="D148">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F148" s="20"/>
+      <c r="K148" s="23"/>
+      <c r="N148">
+        <f>N$1+SUM($L$3:M148)</f>
+        <v>4.200000000000216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A149">
         <v>5.3</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="F55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="D149">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F149" s="20"/>
+      <c r="M149">
+        <f>$M$1</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A150">
         <v>5.4</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="D150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F150" s="20"/>
+      <c r="M150">
+        <f t="shared" ref="M150:M204" si="4">$M$1</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A151">
         <v>5.5</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="F57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="D151">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F151" s="20"/>
+      <c r="M151">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A152">
         <v>5.6</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="D152">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F152" s="20"/>
+      <c r="M152">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A153">
         <v>5.7</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="F59" s="21">
+      <c r="D153">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F153" s="21">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="M153">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A154">
         <v>5.8</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="D154">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F154" s="21"/>
+      <c r="M154">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A155">
         <v>5.9</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="D155">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F155" s="21"/>
+      <c r="M155">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A156">
         <v>6</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <f>E$1+SUM($C$3:D62)</f>
-        <v>75</v>
-      </c>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>6.1</v>
-      </c>
-      <c r="B63" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="C63">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>6.2</v>
-      </c>
-      <c r="B64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>6.3</v>
-      </c>
-      <c r="B65" s="19"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>6.4</v>
-      </c>
-      <c r="B66" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>6.5</v>
-      </c>
-      <c r="B67" s="20"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>6.6</v>
-      </c>
-      <c r="B68" s="20"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>6.7</v>
-      </c>
-      <c r="B69" s="20"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>6.8</v>
-      </c>
-      <c r="B70" s="20"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>6.9</v>
-      </c>
-      <c r="B71" s="20"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>7</v>
-      </c>
-      <c r="B72" s="20"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>7.1</v>
-      </c>
-      <c r="B73" s="20"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>7.2</v>
-      </c>
-      <c r="B74" s="20"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>7.3</v>
-      </c>
-      <c r="B75" s="20"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>7.4</v>
-      </c>
-      <c r="B76" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>7.5</v>
-      </c>
-      <c r="B77" s="21"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>7.6</v>
-      </c>
-      <c r="B78" s="21"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>7.7</v>
-      </c>
-      <c r="B79" s="20">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>7.8</v>
-      </c>
-      <c r="B80" s="20"/>
-      <c r="C80">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>7.9</v>
-      </c>
-      <c r="B81" s="20"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>8</v>
-      </c>
-      <c r="B82" s="20"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>8.1</v>
-      </c>
-      <c r="B83" s="20"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B84" s="20"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B85" s="20"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>8.4</v>
-      </c>
-      <c r="B86" s="20"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>8.5</v>
-      </c>
-      <c r="B87" s="20"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>8.6</v>
-      </c>
-      <c r="B88" s="20"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B89" s="21">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B90" s="21"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>8.9</v>
-      </c>
-      <c r="B91" s="21"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>9</v>
-      </c>
-      <c r="B92" s="21"/>
-      <c r="E92">
-        <f>E$1+SUM($C$3:D92)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>9.1</v>
-      </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="F93" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G93">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="F94" s="19"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="F95" s="19"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>9.4</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="F96" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>9.5</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="F97" s="20"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>9.6</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="F98" s="20"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="F99" s="20"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="F100" s="20"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>9.9</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="F101" s="20"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>10</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="F102" s="20"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>10.1</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-      <c r="F103" s="20"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="20"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>10.3</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="F105" s="20"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>10.4</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="F106" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>10.5</v>
-      </c>
-      <c r="D107">
-        <v>1</v>
-      </c>
-      <c r="F107" s="21"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>10.6</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="F108" s="21"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>10.7</v>
-      </c>
-      <c r="B109" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="C109">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>10.8</v>
-      </c>
-      <c r="B110" s="19"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>10.9</v>
-      </c>
-      <c r="B111" s="19"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>11</v>
-      </c>
-      <c r="B112" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>11.1</v>
-      </c>
-      <c r="B113" s="20"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>11.2</v>
-      </c>
-      <c r="B114" s="20"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>11.3</v>
-      </c>
-      <c r="B115" s="20"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>11.4</v>
-      </c>
-      <c r="B116" s="20"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>11.5</v>
-      </c>
-      <c r="B117" s="20"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>11.6</v>
-      </c>
-      <c r="B118" s="20"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>11.7</v>
-      </c>
-      <c r="B119" s="20"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>11.8</v>
-      </c>
-      <c r="B120" s="20"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>11.9</v>
-      </c>
-      <c r="B121" s="20"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>12</v>
-      </c>
-      <c r="B122" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>12.1</v>
-      </c>
-      <c r="B123" s="21"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>12.2</v>
-      </c>
-      <c r="B124" s="21"/>
-      <c r="E124">
-        <f>E$1+SUM($C$3:D124)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>12.3</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="F125" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G125">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>12.4</v>
-      </c>
-      <c r="B126" s="23"/>
-      <c r="F126" s="19"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>12.5</v>
-      </c>
-      <c r="B127" s="23"/>
-      <c r="F127" s="19"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>12.6</v>
-      </c>
-      <c r="B128" s="23"/>
-      <c r="F128" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>12.7</v>
-      </c>
-      <c r="B129" s="23"/>
-      <c r="F129" s="20"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>12.8</v>
-      </c>
-      <c r="B130" s="23"/>
-      <c r="F130" s="20"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>12.9</v>
-      </c>
-      <c r="B131" s="23"/>
-      <c r="F131" s="20"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>13</v>
-      </c>
-      <c r="B132" s="23"/>
-      <c r="F132" s="20"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>13.1</v>
-      </c>
-      <c r="B133" s="23"/>
-      <c r="F133" s="20"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>13.2</v>
-      </c>
-      <c r="B134" s="23"/>
-      <c r="F134" s="20"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>13.3</v>
-      </c>
-      <c r="B135" s="23"/>
-      <c r="F135" s="20"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>13.4</v>
-      </c>
-      <c r="B136" s="23"/>
-      <c r="F136" s="20"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>13.5</v>
-      </c>
-      <c r="B137" s="23"/>
-      <c r="F137" s="20"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>13.6</v>
-      </c>
-      <c r="B138" s="23"/>
-      <c r="F138" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>13.7</v>
-      </c>
-      <c r="B139" s="23"/>
-      <c r="F139" s="21"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>13.8</v>
-      </c>
-      <c r="B140" s="23"/>
-      <c r="F140" s="21"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>13.9</v>
-      </c>
-      <c r="F141" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="G141">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>14</v>
-      </c>
-      <c r="F142" s="19"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>14.1</v>
-      </c>
-      <c r="F143" s="19"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>14.2</v>
-      </c>
-      <c r="F144" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>14.3</v>
-      </c>
-      <c r="F145" s="20"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>14.4</v>
-      </c>
-      <c r="F146" s="20"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>14.5</v>
-      </c>
-      <c r="F147" s="20"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>14.6</v>
-      </c>
-      <c r="F148" s="20"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>14.7</v>
-      </c>
-      <c r="F149" s="20"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>14.8</v>
-      </c>
-      <c r="F150" s="20"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>14.9</v>
-      </c>
-      <c r="F151" s="20"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>15</v>
-      </c>
-      <c r="F152" s="20"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>15.1</v>
-      </c>
-      <c r="F153" s="20"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>15.2</v>
-      </c>
-      <c r="F154" s="21">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>15.3</v>
-      </c>
-      <c r="F155" s="21"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>15.4</v>
+      <c r="D156">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <f>E$1+SUM($C$3:D156)</f>
+        <v>46</v>
       </c>
       <c r="F156" s="21"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M156">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M161">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>16</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>16.7</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>17.100000000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>18</v>
       </c>
+      <c r="D182">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="E182">
         <f>E$1+SUM($C$3:D182)</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="N182">
+        <f>N$1+SUM($L$3:M182)</f>
+        <v>34.800000000000409</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M183">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M184">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M185">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M186">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M187">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M188">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M189">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M190">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>18.899999999999999</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M191">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>19</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M192">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M193">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M194">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>19.3</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M195">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M196">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M197">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>19.600000000000001</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M198">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M199">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M200">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="M201">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>20</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M203">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M204">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="N204">
+        <f>N$1+SUM($L$3:M204)</f>
+        <v>54.600000000000463</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/plan/概率.xlsx
+++ b/plan/概率.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\pealpool.github.io\plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E723A-6B43-4350-A42E-B59BBC5DD5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31272959-1092-4D9E-97D8-93581E4ED4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>力量</t>
   </si>
@@ -121,6 +121,62 @@
   </si>
   <si>
     <t>闪避</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>八</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计同招</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续同招+5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合同招+2n%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪格</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一回合</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,6 +378,14 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="40% - 着色 5" xfId="9" builtinId="47"/>
@@ -1422,17 +1486,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" customWidth="1"/>
-    <col min="2" max="4" width="7.375" customWidth="1"/>
-    <col min="5" max="6" width="7.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="12" customWidth="1"/>
     <col min="7" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="9" width="7.375" style="12" customWidth="1"/>
     <col min="10" max="10" width="7.375" customWidth="1"/>
@@ -1456,214 +1523,152 @@
       <c r="H1" s="18"/>
       <c r="I1" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
+    <row r="2" spans="1:9" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="24">
         <v>0.01</v>
       </c>
-      <c r="F7" s="12">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24">
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="24">
         <v>0.02</v>
       </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="E8" s="12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="24">
         <v>0.01</v>
       </c>
-      <c r="I7" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>1</v>
-      </c>
-      <c r="B9" s="14">
-        <v>6</v>
-      </c>
-      <c r="D9" s="14">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>2</v>
-      </c>
-      <c r="B10" s="14">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14">
-        <v>3</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14">
-        <v>1</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="I10" s="12"/>
-    </row>
+    </row>
+    <row r="10" spans="1:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14">
-        <v>2</v>
-      </c>
-      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="16">
         <v>0.02</v>
       </c>
-      <c r="F11" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="12">
-        <v>0.02</v>
-      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
-        <v>1</v>
-      </c>
-      <c r="C12" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="D12" s="14">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="H12" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="I12" s="12">
-        <v>0.04</v>
-      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
-        <v>5</v>
-      </c>
-      <c r="B13" s="14">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0.02</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="14">
-        <v>3</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0.02</v>
-      </c>
+      <c r="H13" s="15"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="E14" s="15"/>
       <c r="F14" s="12"/>
@@ -1672,134 +1677,82 @@
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14">
-        <v>3</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="D15" s="14">
-        <v>7</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="16"/>
       <c r="E15" s="15"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0.03</v>
-      </c>
+      <c r="H15" s="15"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>2</v>
-      </c>
-      <c r="B16" s="14">
-        <v>4</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="D16" s="13">
-        <v>2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>0.03</v>
-      </c>
+    <row r="16" spans="1:9" s="14" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="16"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="13">
-        <v>2</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0.03</v>
-      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
-        <v>3</v>
-      </c>
-      <c r="B17" s="14">
-        <v>5</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="D17" s="13">
-        <v>3</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="13">
-        <v>3</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0.03</v>
-      </c>
+      <c r="H17" s="15"/>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
-        <v>4</v>
-      </c>
-      <c r="B18" s="14">
-        <v>6</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0.08</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="I18" s="12">
-        <v>0.08</v>
-      </c>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
-        <v>5</v>
-      </c>
-      <c r="B19" s="14">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="D19" s="27">
         <v>0.01</v>
-      </c>
-      <c r="D19" s="13">
-        <v>6</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="13">
-        <v>2</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="13"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>4</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="27">
+        <v>0.03</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="12"/>
       <c r="G20" s="13"/>
@@ -1808,203 +1761,186 @@
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14">
-        <v>8</v>
-      </c>
-      <c r="C21" s="15">
+        <v>5</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="27">
         <v>0.01</v>
-      </c>
-      <c r="D21" s="14">
-        <v>4</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="15">
-        <v>0.05</v>
-      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
-        <v>2</v>
-      </c>
-      <c r="B22" s="14">
-        <v>1</v>
-      </c>
-      <c r="C22" s="16">
-        <v>0.02</v>
-      </c>
-      <c r="D22" s="13">
-        <v>5</v>
-      </c>
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="15"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="15"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="14">
-        <v>4</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0.01</v>
-      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
-        <v>3</v>
-      </c>
-      <c r="B23" s="14">
-        <v>2</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="D23" s="13">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16">
+        <v>0.01</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="13">
-        <v>2</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0.05</v>
-      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
-        <v>4</v>
-      </c>
-      <c r="B24" s="14">
-        <v>3</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="D24" s="13">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="27">
+        <v>0.03</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0.06</v>
-      </c>
+      <c r="H24" s="15"/>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
-        <v>5</v>
-      </c>
-      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
         <v>4</v>
       </c>
-      <c r="C25" s="15">
+      <c r="B26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="15">
         <v>0.02</v>
       </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13">
-        <v>3</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0.04</v>
-      </c>
-      <c r="I25" s="12">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="27">
+        <v>0.02</v>
+      </c>
       <c r="E26" s="15"/>
       <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
       <c r="H26" s="15"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="12">
-        <f>SUM(E3:F13)</f>
-        <v>0.19</v>
-      </c>
-      <c r="G28" s="12">
-        <f>F28*$B$1</f>
-        <v>0.29450000000000004</v>
-      </c>
-      <c r="I28" s="12">
-        <f>SUM(H3:I13)</f>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="J28" s="12">
-        <f>I28*$B$1</f>
-        <v>0.26349999999999996</v>
-      </c>
-    </row>
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>5</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="12">
-        <f>SUM(C1:C19)</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F29" s="12">
-        <f>SUM(E1:F19)</f>
-        <v>0.37</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" ref="G29:G30" si="0">F29*$B$1</f>
-        <v>0.57350000000000001</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E29" s="15">
+        <f>SUM(C5:E9)</f>
+        <v>0.17</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="12">
-        <f>SUM(H1:I19)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="12">
-        <f t="shared" ref="J29:J30" si="1">I29*$B$1</f>
-        <v>0.77500000000000002</v>
+        <f>E29*2</f>
+        <v>0.34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="15">
+        <f>SUM(C5:E15)</f>
+        <v>0.19</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="12">
+        <f>E30*2</f>
+        <v>0.38</v>
+      </c>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="E31" s="15">
+        <f>SUM(C5:E21)</f>
+        <v>0.26</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="12">
+        <f>E31*2</f>
+        <v>0.52</v>
+      </c>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="12">
-        <f>SUM(C3:C25)</f>
-        <v>0.16</v>
-      </c>
-      <c r="F30" s="12">
-        <f>SUM(E3:F25)</f>
-        <v>0.4</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="0"/>
-        <v>0.62000000000000011</v>
-      </c>
-      <c r="I30" s="12">
-        <f>SUM(H3:I25)</f>
-        <v>0.79000000000000015</v>
-      </c>
-      <c r="J30" s="12">
-        <f t="shared" si="1"/>
-        <v>1.2245000000000004</v>
-      </c>
+      <c r="C32" s="12"/>
+      <c r="E32" s="15">
+        <f>SUM(C5:E27)</f>
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="12">
+        <f>E32*2</f>
+        <v>0.7200000000000002</v>
+      </c>
+      <c r="J32" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/plan/概率.xlsx
+++ b/plan/概率.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\mycode\pealpool.github.io\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31272959-1092-4D9E-97D8-93581E4ED4DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2554D6D7-8BE4-4662-AB3F-B8114F965500}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24555" windowHeight="13575" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="破绽" sheetId="3" r:id="rId2"/>
-    <sheet name="耐力" sheetId="4" r:id="rId3"/>
+    <sheet name="耗气" sheetId="4" r:id="rId3"/>
     <sheet name="时间" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>力量</t>
   </si>
@@ -1488,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1946,139 +1946,96 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C052CB7-A640-4E97-B29C-92F294C2D6DF}">
-  <dimension ref="A3:E31"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>7.5</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" ht="3.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>1</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>2</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>3</v>
       </c>
       <c r="B11">
         <v>17</v>
       </c>
-      <c r="C11">
-        <v>7.5</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>4</v>
       </c>
       <c r="B12">
         <v>20</v>
       </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -2086,10 +2043,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>1</v>
       </c>
@@ -2097,19 +2054,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>2</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
@@ -2117,12 +2068,6 @@
       </c>
       <c r="B17">
         <v>15</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2132,9 +2077,6 @@
       <c r="B18">
         <v>10</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
@@ -2143,9 +2085,6 @@
       <c r="B19">
         <v>10</v>
       </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
     </row>
     <row r="20" spans="1:5" ht="3" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
@@ -2156,9 +2095,6 @@
       </c>
       <c r="B21">
         <v>10</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2168,15 +2104,6 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22">
-        <v>7.5</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-      <c r="E22">
-        <v>5</v>
-      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
@@ -2192,12 +2119,6 @@
       </c>
       <c r="B24">
         <v>10</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2215,15 +2136,15 @@
       </c>
       <c r="C28">
         <f>SUM($B$3:C7)</f>
-        <v>72.5</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <f>SUM($B$3:D7)</f>
-        <v>92.5</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <f>SUM($B$3:E7)</f>
-        <v>107.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,15 +2154,15 @@
       </c>
       <c r="C29">
         <f>SUM($B$3:C13)</f>
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D29">
         <f>SUM($B$3:D13)</f>
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <f>SUM($B$3:E13)</f>
-        <v>217</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2251,15 +2172,15 @@
       </c>
       <c r="C30">
         <f>SUM($B$3:C19)</f>
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="D30">
         <f>SUM($B$3:D19)</f>
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="E30">
         <f>SUM($B$3:E19)</f>
-        <v>302</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2269,20 +2190,21 @@
       </c>
       <c r="C31">
         <f>SUM($B$3:C25)</f>
-        <v>296.5</v>
+        <v>239</v>
       </c>
       <c r="D31">
         <f>SUM($B$3:D25)</f>
-        <v>361.5</v>
+        <v>239</v>
       </c>
       <c r="E31">
         <f>SUM($B$3:E25)</f>
-        <v>396.5</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2290,11 +2212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B83226E-417D-41A7-8B23-9D2632524EB2}">
   <dimension ref="A1:N204"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2308,10 +2230,10 @@
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E1" s="22">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>20</v>
@@ -2383,7 +2305,7 @@
         <v>0.3</v>
       </c>
       <c r="C3">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="K3" s="19">
         <v>0.3</v>
@@ -2513,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="K19" s="20">
         <v>1</v>
@@ -2528,7 +2450,7 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20">
@@ -2623,7 +2545,7 @@
       <c r="B32" s="21"/>
       <c r="E32">
         <f>E$1+SUM($C$3:D32)</f>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="K32" s="21"/>
       <c r="N32">
@@ -2639,7 +2561,7 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F33" s="19">
         <v>0.3</v>
@@ -2777,7 +2699,7 @@
       <c r="B48" s="23"/>
       <c r="E48">
         <f>E$1+SUM($C$3:D48)</f>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F48" s="21"/>
       <c r="K48" s="23"/>
@@ -2794,7 +2716,7 @@
         <v>0.3</v>
       </c>
       <c r="C49">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="K49" s="19">
         <v>0.3</v>
@@ -3034,7 +2956,7 @@
       <c r="B78" s="21"/>
       <c r="E78">
         <f>E$1+SUM($C$3:D78)</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K78" s="21"/>
       <c r="N78">
@@ -3048,7 +2970,7 @@
       </c>
       <c r="D79">
         <f>$D$1</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F79" s="19">
         <v>0.3</v>
@@ -3067,7 +2989,7 @@
       </c>
       <c r="D80">
         <f t="shared" ref="D80:D94" si="0">$D$1</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F80" s="19"/>
       <c r="M80">
@@ -3081,7 +3003,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F81" s="19"/>
       <c r="M81">
@@ -3095,7 +3017,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F82" s="20">
         <v>1</v>
@@ -3111,7 +3033,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F83" s="20"/>
       <c r="M83">
@@ -3125,7 +3047,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F84" s="20"/>
       <c r="M84">
@@ -3139,7 +3061,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F85" s="20"/>
       <c r="M85">
@@ -3153,7 +3075,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F86" s="20"/>
       <c r="M86">
@@ -3167,7 +3089,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F87" s="20"/>
       <c r="M87">
@@ -3181,7 +3103,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F88" s="20"/>
       <c r="M88">
@@ -3195,7 +3117,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F89" s="20"/>
       <c r="M89">
@@ -3209,7 +3131,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F90" s="20"/>
       <c r="M90">
@@ -3223,7 +3145,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F91" s="20"/>
       <c r="M91">
@@ -3237,7 +3159,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F92" s="21">
         <v>0.3</v>
@@ -3253,7 +3175,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F93" s="21"/>
       <c r="M93">
@@ -3267,11 +3189,11 @@
       </c>
       <c r="D94">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E94">
         <f>E$1+SUM($C$3:D94)</f>
-        <v>46</v>
+        <v>17.799999999999955</v>
       </c>
       <c r="F94" s="21"/>
       <c r="M94">
@@ -3287,7 +3209,7 @@
         <v>0.3</v>
       </c>
       <c r="C95">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="M95">
         <f t="shared" si="1"/>
@@ -3438,7 +3360,7 @@
       <c r="B110" s="21"/>
       <c r="E110">
         <f>E$1+SUM($C$3:D110)</f>
-        <v>26</v>
+        <v>2.7999999999999545</v>
       </c>
       <c r="K110" s="20"/>
     </row>
@@ -3450,7 +3372,7 @@
         <v>23</v>
       </c>
       <c r="C111">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F111" s="19">
         <v>0.3</v>
@@ -3607,7 +3529,7 @@
       <c r="B126" s="23"/>
       <c r="E126">
         <f>E$1+SUM($C$3:D126)</f>
-        <v>16</v>
+        <v>-2.2000000000000455</v>
       </c>
       <c r="F126" s="21"/>
       <c r="M126">
@@ -3621,7 +3543,7 @@
       </c>
       <c r="D127">
         <f t="shared" ref="D127:D182" si="3">$D$1</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F127" s="19">
         <v>0.3</v>
@@ -3640,7 +3562,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F128" s="19"/>
       <c r="M128">
@@ -3654,7 +3576,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F129" s="19"/>
       <c r="M129">
@@ -3668,7 +3590,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F130" s="20">
         <v>1</v>
@@ -3684,7 +3606,7 @@
       </c>
       <c r="D131">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F131" s="20"/>
       <c r="M131">
@@ -3698,7 +3620,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F132" s="20"/>
       <c r="M132">
@@ -3716,7 +3638,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F133" s="20"/>
       <c r="K133" s="23" t="s">
@@ -3732,7 +3654,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F134" s="20"/>
       <c r="K134" s="23"/>
@@ -3743,7 +3665,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F135" s="20"/>
       <c r="K135" s="23"/>
@@ -3754,7 +3676,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F136" s="20"/>
       <c r="K136" s="23"/>
@@ -3765,7 +3687,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F137" s="20"/>
       <c r="K137" s="23"/>
@@ -3776,7 +3698,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F138" s="20"/>
       <c r="K138" s="23"/>
@@ -3787,7 +3709,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F139" s="20"/>
       <c r="K139" s="23"/>
@@ -3798,7 +3720,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F140" s="21">
         <v>0.3</v>
@@ -3811,7 +3733,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F141" s="21"/>
       <c r="K141" s="23"/>
@@ -3822,7 +3744,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F142" s="21"/>
       <c r="K142" s="23"/>
@@ -3833,7 +3755,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F143" s="20">
         <v>1</v>
@@ -3849,7 +3771,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F144" s="20"/>
       <c r="G144">
@@ -3863,7 +3785,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F145" s="20"/>
       <c r="K145" s="23"/>
@@ -3874,7 +3796,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F146" s="20"/>
       <c r="K146" s="23"/>
@@ -3885,7 +3807,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F147" s="20"/>
       <c r="K147" s="23"/>
@@ -3896,7 +3818,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F148" s="20"/>
       <c r="K148" s="23"/>
@@ -3911,7 +3833,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F149" s="20"/>
       <c r="M149">
@@ -3925,7 +3847,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F150" s="20"/>
       <c r="M150">
@@ -3939,7 +3861,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F151" s="20"/>
       <c r="M151">
@@ -3953,7 +3875,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F152" s="20"/>
       <c r="M152">
@@ -3967,7 +3889,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F153" s="21">
         <v>0.4</v>
@@ -3983,7 +3905,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F154" s="21"/>
       <c r="M154">
@@ -3997,7 +3919,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F155" s="21"/>
       <c r="M155">
@@ -4011,11 +3933,11 @@
       </c>
       <c r="D156">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E156">
         <f>E$1+SUM($C$3:D156)</f>
-        <v>46</v>
+        <v>21.799999999999869</v>
       </c>
       <c r="F156" s="21"/>
       <c r="M156">
@@ -4029,7 +3951,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M157">
         <f t="shared" si="4"/>
@@ -4042,7 +3964,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M158">
         <f t="shared" si="4"/>
@@ -4055,7 +3977,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M159">
         <f t="shared" si="4"/>
@@ -4068,7 +3990,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M160">
         <f t="shared" si="4"/>
@@ -4081,7 +4003,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M161">
         <f t="shared" si="4"/>
@@ -4094,7 +4016,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M162">
         <f t="shared" si="4"/>
@@ -4107,7 +4029,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M163">
         <f t="shared" si="4"/>
@@ -4120,7 +4042,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M164">
         <f t="shared" si="4"/>
@@ -4133,7 +4055,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M165">
         <f t="shared" si="4"/>
@@ -4146,7 +4068,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M166">
         <f t="shared" si="4"/>
@@ -4159,7 +4081,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M167">
         <f t="shared" si="4"/>
@@ -4172,7 +4094,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M168">
         <f t="shared" si="4"/>
@@ -4185,7 +4107,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M169">
         <f t="shared" si="4"/>
@@ -4198,7 +4120,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M170">
         <f t="shared" si="4"/>
@@ -4211,7 +4133,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M171">
         <f t="shared" si="4"/>
@@ -4224,7 +4146,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M172">
         <f t="shared" si="4"/>
@@ -4237,7 +4159,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M173">
         <f t="shared" si="4"/>
@@ -4250,7 +4172,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M174">
         <f t="shared" si="4"/>
@@ -4263,7 +4185,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M175">
         <f t="shared" si="4"/>
@@ -4276,7 +4198,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M176">
         <f t="shared" si="4"/>
@@ -4289,7 +4211,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M177">
         <f t="shared" si="4"/>
@@ -4302,7 +4224,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M178">
         <f t="shared" si="4"/>
@@ -4315,7 +4237,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M179">
         <f t="shared" si="4"/>
@@ -4328,7 +4250,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M180">
         <f t="shared" si="4"/>
@@ -4341,7 +4263,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M181">
         <f t="shared" si="4"/>
@@ -4354,11 +4276,11 @@
       </c>
       <c r="D182">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E182">
         <f>E$1+SUM($C$3:D182)</f>
-        <v>72</v>
+        <v>42.599999999999795</v>
       </c>
       <c r="M182">
         <f t="shared" si="4"/>
